--- a/doc/物联网知识子系统工作计划20190513.xlsx
+++ b/doc/物联网知识子系统工作计划20190513.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>物联网知识子系统工作量预估（2019-05）</t>
   </si>
@@ -153,24 +153,54 @@
     <t>知识列表展示（展示其所属领域、部门、元知识），根据知识名对知识进行检索</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>知识导入导出</t>
   </si>
   <si>
     <t>知识的导入，包括owl、rdf文件；知识的导出（删除）（导入需技术调研），导入时选择知识所属的元知识（目录），若没有元知识则提示先创建</t>
   </si>
   <si>
+    <t>插入mysql，插入graphDB；删除同样</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>因数据库问题拖延</t>
+  </si>
+  <si>
+    <t>新增：元知识点击查看详情  foi</t>
+  </si>
+  <si>
+    <t>推后</t>
+  </si>
+  <si>
     <t>SparQL增删改查</t>
   </si>
   <si>
     <t>使用SparQL对知识进行简单的新增、删除、查询、修改</t>
   </si>
   <si>
+    <t>sparql前台用户手写</t>
+  </si>
+  <si>
     <t>知识图谱</t>
   </si>
   <si>
     <t>知识列表中单个知识的知识图谱（此部分需技术调研）</t>
   </si>
   <si>
+    <t>http://www.docin.com/p-619693301.html</t>
+  </si>
+  <si>
+    <t>推后,应章老师需要，先做事件推理</t>
+  </si>
+  <si>
     <t>知识分类管理</t>
   </si>
   <si>
@@ -183,16 +213,31 @@
     <t>整个知识层级分类分为领域、部门、元知识，元知识下为具体知识</t>
   </si>
   <si>
+    <t>2019-05-21</t>
+  </si>
+  <si>
+    <t>因数据库问题提前</t>
+  </si>
+  <si>
     <t>部门列表</t>
   </si>
   <si>
     <t>部门的列表展示以及对领域的新增、删除、查询、修改。根据部门名称对列表进行检索</t>
   </si>
   <si>
+    <t>2019-05-23</t>
+  </si>
+  <si>
     <t>元知识列表</t>
   </si>
   <si>
     <t>元知识（目录）的列表展示以及对领域的新增、删除、查询、修改。根据元知识名称对列表进行检索</t>
+  </si>
+  <si>
+    <t>2019-05-24</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
   </si>
   <si>
     <t>所有知识的知识图谱展示（类似地图）</t>
@@ -293,13 +338,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,22 +382,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,16 +424,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,60 +515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -466,21 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF373737"/>
       <name val="宋体"/>
@@ -502,187 +552,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,24 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -781,26 +813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +848,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -845,6 +871,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -853,10 +903,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,128 +924,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,9 +1107,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,11 +1130,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1414,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1493,10 +1549,10 @@
       <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1524,16 +1580,16 @@
         <v>3</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>43612</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>43613</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8" t="s">
@@ -1553,16 +1609,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>43607</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>43608</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" ht="63.75" spans="1:15">
       <c r="A5" s="8" t="s">
@@ -1582,16 +1638,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>43600</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>43602</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" ht="27" spans="1:15">
       <c r="A6" s="8" t="s">
@@ -1611,16 +1667,16 @@
         <v>3</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>43600</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>43602</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" ht="54" spans="1:15">
       <c r="A7" s="8" t="s">
@@ -1647,21 +1703,25 @@
       <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29">
+      <c r="I7" s="29"/>
+      <c r="J7" s="28">
         <v>43598</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>43599</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <v>43598</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" ht="94.5" spans="1:15">
+      <c r="M7" s="28">
+        <v>43599</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" ht="94.5" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1669,26 +1729,42 @@
       <c r="C8" s="16"/>
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="14">
         <v>5</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29">
+      <c r="I8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="28">
         <v>43605</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>43606</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="L8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" ht="40.5" spans="1:15">
       <c r="A9" s="8" t="s">
@@ -1698,28 +1774,36 @@
       <c r="C9" s="16"/>
       <c r="D9" s="11"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>31</v>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="H9" s="14">
         <v>5</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29">
+      <c r="I9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="28">
         <v>43608</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>43609</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:15">
+      <c r="L9" s="28">
+        <v>43622</v>
+      </c>
+      <c r="M9" s="28">
+        <v>43626</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:17">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1727,26 +1811,33 @@
       <c r="C10" s="16"/>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>33</v>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="14">
         <v>8</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29">
+      <c r="I10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="28">
         <v>43614</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>43615</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" ht="54" spans="1:15">
       <c r="A11" s="8" t="s">
@@ -1756,30 +1847,38 @@
       <c r="C11" s="16"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="14">
         <v>2</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="29">
+        <v>47</v>
+      </c>
+      <c r="J11" s="28">
         <v>43616</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>43616</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="L11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" ht="54" spans="1:15">
       <c r="A12" s="8" t="s">
@@ -1789,26 +1888,32 @@
       <c r="C12" s="16"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H12" s="14">
         <v>2</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>43619</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>43619</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="L12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" ht="67.5" spans="1:15">
       <c r="A13" s="8" t="s">
@@ -1818,28 +1923,34 @@
       <c r="C13" s="16"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="20" t="s">
-        <v>40</v>
+      <c r="F13" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" s="14">
         <v>5</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>43620</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <v>43620</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" ht="27" spans="1:15">
+      <c r="L13" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1847,28 +1958,30 @@
       <c r="C14" s="16"/>
       <c r="D14" s="11"/>
       <c r="E14" s="14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="14">
         <v>8</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29">
+      <c r="I14" s="29"/>
+      <c r="J14" s="28">
         <v>43621</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>43623</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="31" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" ht="94.5" spans="1:15">
       <c r="A15" s="8" t="s">
@@ -1877,31 +1990,31 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="H15" s="14">
         <v>5</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29">
+      <c r="I15" s="29"/>
+      <c r="J15" s="28">
         <v>43626</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>43627</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" ht="108" spans="1:15">
       <c r="A16" s="8" t="s">
@@ -1911,30 +2024,30 @@
       <c r="C16" s="16"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="H16" s="14">
         <v>8</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="I16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="28">
         <v>43628</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="28">
         <v>43629</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" ht="67.5" spans="1:15">
       <c r="A17" s="8" t="s">
@@ -1944,30 +2057,30 @@
       <c r="C17" s="16"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="H17" s="14">
         <v>6</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="I17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="28">
         <v>43630</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <v>43633</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" ht="27" spans="1:15">
       <c r="A18" s="8" t="s">
@@ -1977,26 +2090,26 @@
       <c r="C18" s="16"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="H18" s="14">
         <v>6</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="I18" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" ht="67.5" spans="1:15">
       <c r="A19" s="8" t="s">
@@ -2006,30 +2119,30 @@
       <c r="C19" s="16"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="H19" s="14">
         <v>40</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="28">
         <v>43634</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="28">
         <v>43637</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" ht="40.5" spans="1:15">
       <c r="A20" s="8" t="s">
@@ -2038,33 +2151,33 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H20" s="14">
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="29">
+        <v>77</v>
+      </c>
+      <c r="J20" s="28">
         <v>43640</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="28">
         <v>43640</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" ht="81" spans="1:15">
       <c r="A21" s="8" t="s">
@@ -2074,108 +2187,108 @@
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H21" s="14">
         <v>5</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>43641</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>43642</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" ht="54" spans="1:15">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="18"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H22" s="14">
         <v>5</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>43643</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>43644</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:15">
       <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="23">
+        <v>83</v>
+      </c>
+      <c r="B23" s="22">
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20">
+        <v>84</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="26">
         <f>SUM(H3:H23)</f>
         <v>142</v>
       </c>
-      <c r="I24" s="32" t="s">
-        <v>71</v>
+      <c r="I24" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="8:9">
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <f>SUM(H3:H23)/22.75</f>
         <v>6.24175824175824</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>72</v>
+      <c r="I25" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/物联网知识子系统工作计划20190513.xlsx
+++ b/doc/物联网知识子系统工作计划20190513.xlsx
@@ -338,10 +338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
@@ -387,8 +387,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +471,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,119 +525,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF373737"/>
       <name val="宋体"/>
@@ -552,55 +552,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,127 +708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -823,65 +873,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -895,6 +886,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,10 +903,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,133 +915,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2011,7 +2011,9 @@
       <c r="K15" s="28">
         <v>43627</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="28">
+        <v>43633</v>
+      </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
